--- a/sample_cf.xlsx
+++ b/sample_cf.xlsx
@@ -1,38 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nulak2050\PycharmProjects\project_cf_ai_agent\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4559BB4C-F208-4831-A6EE-E3DBCCED39C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="As-Sold" sheetId="1" r:id="rId1"/>
+    <sheet name="Actual" sheetId="2" r:id="rId2"/>
+    <sheet name="VO" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>Actual</t>
+    <t>Planned Inflow</t>
+  </si>
+  <si>
+    <t>Planned Outflow</t>
+  </si>
+  <si>
+    <t>Planned Net</t>
+  </si>
+  <si>
+    <t>Planned Value (PV)</t>
+  </si>
+  <si>
+    <t>Actual Inflow</t>
+  </si>
+  <si>
+    <t>Actual Outflow</t>
+  </si>
+  <si>
+    <t>Actual Net</t>
+  </si>
+  <si>
+    <t>Actual Cost (AC)</t>
+  </si>
+  <si>
+    <t>Earned Value (EV)</t>
+  </si>
+  <si>
+    <t>VO Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Scope increase</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Additional resources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +140,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +192,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,14 +437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,137 +456,323 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45658</v>
+        <v>45292</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C2">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>80000</v>
+      </c>
+      <c r="D2">
+        <v>20000</v>
+      </c>
+      <c r="E2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45689</v>
+        <v>45323</v>
       </c>
       <c r="B3">
-        <v>11000</v>
+        <v>120000</v>
       </c>
       <c r="C3">
-        <v>10450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>85000</v>
+      </c>
+      <c r="D3">
+        <v>35000</v>
+      </c>
+      <c r="E3">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45717</v>
+        <v>45352</v>
       </c>
       <c r="B4">
-        <v>12000</v>
+        <v>110000</v>
       </c>
       <c r="C4">
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>90000</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45748</v>
+        <v>45383</v>
       </c>
       <c r="B5">
-        <v>13000</v>
+        <v>115000</v>
       </c>
       <c r="C5">
-        <v>12350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>87000</v>
+      </c>
+      <c r="D5">
+        <v>28000</v>
+      </c>
+      <c r="E5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45778</v>
+        <v>45413</v>
       </c>
       <c r="B6">
-        <v>14000</v>
+        <v>130000</v>
       </c>
       <c r="C6">
-        <v>13300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>95000</v>
+      </c>
+      <c r="D6">
+        <v>35000</v>
+      </c>
+      <c r="E6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45809</v>
+        <v>45444</v>
       </c>
       <c r="B7">
-        <v>15000</v>
+        <v>125000</v>
       </c>
       <c r="C7">
-        <v>14250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>45839</v>
-      </c>
-      <c r="B8">
+        <v>92000</v>
+      </c>
+      <c r="D7">
+        <v>33000</v>
+      </c>
+      <c r="E7">
+        <v>115000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B2">
+        <v>98000</v>
+      </c>
+      <c r="C2">
+        <v>82000</v>
+      </c>
+      <c r="D2">
         <v>16000</v>
       </c>
-      <c r="C8">
-        <v>15200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>45870</v>
-      </c>
-      <c r="B9">
-        <v>17000</v>
-      </c>
-      <c r="C9">
-        <v>16150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B10">
-        <v>18000</v>
-      </c>
-      <c r="C10">
-        <v>17100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B11">
-        <v>19000</v>
-      </c>
-      <c r="C11">
-        <v>18050</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B12">
-        <v>20000</v>
-      </c>
-      <c r="C12">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B13">
-        <v>21000</v>
-      </c>
-      <c r="C13">
-        <v>19950</v>
+      <c r="E2">
+        <v>85000</v>
+      </c>
+      <c r="F2">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B3">
+        <v>118000</v>
+      </c>
+      <c r="C3">
+        <v>88000</v>
+      </c>
+      <c r="D3">
+        <v>30000</v>
+      </c>
+      <c r="E3">
+        <v>87000</v>
+      </c>
+      <c r="F3">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B4">
+        <v>108000</v>
+      </c>
+      <c r="C4">
+        <v>92000</v>
+      </c>
+      <c r="D4">
+        <v>16000</v>
+      </c>
+      <c r="E4">
+        <v>88000</v>
+      </c>
+      <c r="F4">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B5">
+        <v>113000</v>
+      </c>
+      <c r="C5">
+        <v>89000</v>
+      </c>
+      <c r="D5">
+        <v>24000</v>
+      </c>
+      <c r="E5">
+        <v>91000</v>
+      </c>
+      <c r="F5">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B6">
+        <v>128000</v>
+      </c>
+      <c r="C6">
+        <v>97000</v>
+      </c>
+      <c r="D6">
+        <v>31000</v>
+      </c>
+      <c r="E6">
+        <v>94000</v>
+      </c>
+      <c r="F6">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B7">
+        <v>123000</v>
+      </c>
+      <c r="C7">
+        <v>94000</v>
+      </c>
+      <c r="D7">
+        <v>29000</v>
+      </c>
+      <c r="E7">
+        <v>95000</v>
+      </c>
+      <c r="F7">
+        <v>98000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B3">
+        <v>-3000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B4">
+        <v>7000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sample_cf.xlsx
+++ b/sample_cf.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nulak2050\PycharmProjects\project_cf_ai_agent\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nulak2050\PycharmProjects\ai-finance-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4559BB4C-F208-4831-A6EE-E3DBCCED39C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B5D5BD-AE09-4E1C-BF5C-EBF7620D1C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="As-Sold" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="VO" sheetId="3" r:id="rId3"/>
+    <sheet name="Variance" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -54,7 +55,10 @@
     <t>Earned Value (EV)</t>
   </si>
   <si>
-    <t>VO Amount</t>
+    <t>VO Inflow</t>
+  </si>
+  <si>
+    <t>VO Outflow</t>
   </si>
   <si>
     <t>Description</t>
@@ -67,6 +71,12 @@
   </si>
   <si>
     <t>Additional resources</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Variance %</t>
   </si>
 </sst>
 </file>
@@ -74,18 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -109,30 +111,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -151,10 +135,349 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Planned vs Actual Net Cashflow</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Variance!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned Net</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Variance!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ h:mm:ss</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Variance!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D76-4D8A-B184-4BD4484B3551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Variance!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Net</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Variance!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ h:mm:ss</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Variance!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D76-4D8A-B184-4BD4484B3551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>THB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +515,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,7 +549,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,10 +583,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,31 +761,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>45292</v>
       </c>
       <c r="B2">
@@ -481,7 +800,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>45323</v>
       </c>
       <c r="B3">
@@ -498,7 +817,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>45352</v>
       </c>
       <c r="B4">
@@ -515,7 +834,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>45383</v>
       </c>
       <c r="B5">
@@ -532,7 +851,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>45413</v>
       </c>
       <c r="B6">
@@ -549,7 +868,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>45444</v>
       </c>
       <c r="B7">
@@ -566,7 +885,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -579,27 +898,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>45292</v>
       </c>
       <c r="B2">
@@ -619,7 +938,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>45323</v>
       </c>
       <c r="B3">
@@ -639,7 +958,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>45352</v>
       </c>
       <c r="B4">
@@ -659,7 +978,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>45383</v>
       </c>
       <c r="B5">
@@ -679,7 +998,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>45413</v>
       </c>
       <c r="B6">
@@ -699,7 +1018,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>45444</v>
       </c>
       <c r="B7">
@@ -719,63 +1038,210 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45292</v>
       </c>
       <c r="B2">
         <v>5000</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45352</v>
       </c>
       <c r="B3">
-        <v>-3000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45413</v>
       </c>
       <c r="B4">
         <v>7000</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B2">
+        <v>20000</v>
+      </c>
+      <c r="C2">
+        <v>16000</v>
+      </c>
+      <c r="D2">
+        <v>-4000</v>
+      </c>
+      <c r="E2">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B3">
+        <v>35000</v>
+      </c>
+      <c r="C3">
+        <v>30000</v>
+      </c>
+      <c r="D3">
+        <v>-5000</v>
+      </c>
+      <c r="E3">
+        <v>-14.285714285714279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B4">
+        <v>20000</v>
+      </c>
+      <c r="C4">
+        <v>16000</v>
+      </c>
+      <c r="D4">
+        <v>-4000</v>
+      </c>
+      <c r="E4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B5">
+        <v>28000</v>
+      </c>
+      <c r="C5">
+        <v>24000</v>
+      </c>
+      <c r="D5">
+        <v>-4000</v>
+      </c>
+      <c r="E5">
+        <v>-14.285714285714279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B6">
+        <v>35000</v>
+      </c>
+      <c r="C6">
+        <v>31000</v>
+      </c>
+      <c r="D6">
+        <v>-4000</v>
+      </c>
+      <c r="E6">
+        <v>-11.428571428571431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B7">
+        <v>33000</v>
+      </c>
+      <c r="C7">
+        <v>29000</v>
+      </c>
+      <c r="D7">
+        <v>-4000</v>
+      </c>
+      <c r="E7">
+        <v>-12.121212121212119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample_cf.xlsx
+++ b/sample_cf.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nulak2050\PycharmProjects\ai-finance-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nulak2050\PycharmProjects\enterprise_cf_ai_agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B5D5BD-AE09-4E1C-BF5C-EBF7620D1C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB46ED6-B7FD-4D8F-BCEE-F65F8C1B0E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62640" yWindow="2175" windowWidth="21600" windowHeight="13305" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="As-Sold" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="VO" sheetId="3" r:id="rId3"/>
     <sheet name="Variance" sheetId="4" r:id="rId4"/>
+    <sheet name="Multi" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -77,17 +78,50 @@
   </si>
   <si>
     <t>Variance %</t>
+  </si>
+  <si>
+    <t>Unit_ID</t>
+  </si>
+  <si>
+    <t>Milestone_ID</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>FX_Reference</t>
+  </si>
+  <si>
+    <t>Unit_A</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USD_THB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,13 +145,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,13 +812,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,8 +836,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -798,8 +856,11 @@
       <c r="E2">
         <v>90000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45323</v>
       </c>
@@ -815,8 +876,11 @@
       <c r="E3">
         <v>95000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45352</v>
       </c>
@@ -832,8 +896,11 @@
       <c r="E4">
         <v>97000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45383</v>
       </c>
@@ -849,8 +916,11 @@
       <c r="E5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45413</v>
       </c>
@@ -866,8 +936,11 @@
       <c r="E6">
         <v>110000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45444</v>
       </c>
@@ -882,6 +955,9 @@
       </c>
       <c r="E7">
         <v>115000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -891,13 +967,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -916,8 +994,11 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -936,8 +1017,11 @@
       <c r="F2">
         <v>87000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45323</v>
       </c>
@@ -956,8 +1040,11 @@
       <c r="F3">
         <v>88000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45352</v>
       </c>
@@ -976,8 +1063,11 @@
       <c r="F4">
         <v>89000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45383</v>
       </c>
@@ -996,8 +1086,11 @@
       <c r="F5">
         <v>93000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45413</v>
       </c>
@@ -1016,8 +1109,11 @@
       <c r="F6">
         <v>96000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45444</v>
       </c>
@@ -1035,6 +1131,9 @@
       </c>
       <c r="F7">
         <v>98000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1044,13 +1143,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,8 +1164,11 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -1077,8 +1181,11 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45352</v>
       </c>
@@ -1091,8 +1198,11 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45413</v>
       </c>
@@ -1104,6 +1214,9 @@
       </c>
       <c r="D4" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1113,15 +1226,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1137,8 +1250,11 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -1154,8 +1270,11 @@
       <c r="E2">
         <v>-20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45323</v>
       </c>
@@ -1171,8 +1290,11 @@
       <c r="E3">
         <v>-14.285714285714279</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45352</v>
       </c>
@@ -1188,8 +1310,11 @@
       <c r="E4">
         <v>-20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45383</v>
       </c>
@@ -1205,8 +1330,11 @@
       <c r="E5">
         <v>-14.285714285714279</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45413</v>
       </c>
@@ -1222,8 +1350,11 @@
       <c r="E6">
         <v>-11.428571428571431</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45444</v>
       </c>
@@ -1238,10 +1369,405 @@
       </c>
       <c r="E7">
         <v>-12.121212121212119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58B9752-9A22-40E6-B9F6-1CDDEF8341C9}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>45688</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>100000</v>
+      </c>
+      <c r="G2">
+        <v>75000</v>
+      </c>
+      <c r="H2">
+        <v>95000</v>
+      </c>
+      <c r="I2">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <v>75000</v>
+      </c>
+      <c r="H3">
+        <v>105000</v>
+      </c>
+      <c r="I3">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45747</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <v>75000</v>
+      </c>
+      <c r="H4">
+        <v>98000</v>
+      </c>
+      <c r="I4">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>75000</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45808</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>100000</v>
+      </c>
+      <c r="G6">
+        <v>75000</v>
+      </c>
+      <c r="H6">
+        <v>102000</v>
+      </c>
+      <c r="I6">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45838</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>100000</v>
+      </c>
+      <c r="G7">
+        <v>75000</v>
+      </c>
+      <c r="H7">
+        <v>99000</v>
+      </c>
+      <c r="I7">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45869</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>100000</v>
+      </c>
+      <c r="G8">
+        <v>75000</v>
+      </c>
+      <c r="H8">
+        <v>96000</v>
+      </c>
+      <c r="I8">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45900</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>100000</v>
+      </c>
+      <c r="G9">
+        <v>75000</v>
+      </c>
+      <c r="H9">
+        <v>97000</v>
+      </c>
+      <c r="I9">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45930</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>100000</v>
+      </c>
+      <c r="G10">
+        <v>75000</v>
+      </c>
+      <c r="H10">
+        <v>101000</v>
+      </c>
+      <c r="I10">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>100000</v>
+      </c>
+      <c r="G11">
+        <v>75000</v>
+      </c>
+      <c r="H11">
+        <v>95000</v>
+      </c>
+      <c r="I11">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45991</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>75000</v>
+      </c>
+      <c r="H12">
+        <v>97000</v>
+      </c>
+      <c r="I12">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>46022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>100000</v>
+      </c>
+      <c r="G13">
+        <v>75000</v>
+      </c>
+      <c r="H13">
+        <v>98000</v>
+      </c>
+      <c r="I13">
+        <v>86000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>